--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\RPA\RPA002\사방넷재고전송\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\RPA\RPA002\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C13FAE-9264-44C4-BAF7-15E6665617D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B87E798-DFF4-4527-A240-3A609C0CDD4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3165" yWindow="915" windowWidth="21615" windowHeight="13980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="87">
   <si>
     <t>Name</t>
   </si>
@@ -1626,6 +1626,13 @@
   </si>
   <si>
     <t>cowell2023!!</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C:\error.png</t>
+  </si>
+  <si>
+    <t>C:\error.png</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2085,7 +2092,7 @@
   <dimension ref="A1:AA996"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2335,6 +2342,12 @@
     <row r="22" spans="1:4" ht="14.25" customHeight="1">
       <c r="A22" t="s">
         <v>48</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.25" customHeight="1">

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\RPA\RPA002\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B87E798-DFF4-4527-A240-3A609C0CDD4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4912E32C-0221-4A53-871C-32C089215B59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2625" yWindow="3210" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -2092,7 +2092,7 @@
   <dimension ref="A1:AA996"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
